--- a/SourceData/EXCEL/mtcars_meta.xlsx
+++ b/SourceData/EXCEL/mtcars_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SmartSolutionShiny\SourceData\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A00A3CE-A8E2-49BC-A56B-8B1D379FA192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8D21E-D1A4-4C14-A6BE-78D183B0056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mtcars_meta" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>mpg</t>
   </si>
@@ -89,26 +89,6 @@
   </si>
   <si>
     <t>연비</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>in^3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 lbs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>second</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1061,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1223,20 +1203,38 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+      <c r="E7">
+        <v>3.9</v>
+      </c>
+      <c r="F7">
+        <v>2.62</v>
+      </c>
+      <c r="G7">
+        <v>16.46</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1256,10 +1254,10 @@
         <v>3.9</v>
       </c>
       <c r="F8">
-        <v>2.62</v>
+        <v>2.875</v>
       </c>
       <c r="G8">
-        <v>16.46</v>
+        <v>17.02</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1276,28 +1274,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="F9">
-        <v>2.875</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G9">
-        <v>17.02</v>
+        <v>18.61</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1306,39 +1304,39 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E10">
-        <v>3.85</v>
+        <v>3.08</v>
       </c>
       <c r="F10">
-        <v>2.3199999999999998</v>
+        <v>3.2149999999999999</v>
       </c>
       <c r="G10">
-        <v>18.61</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1346,28 +1344,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="D11">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E11">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="F11">
-        <v>3.2149999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="G11">
-        <v>19.440000000000001</v>
+        <v>17.02</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1376,33 +1374,33 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>18.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="D12">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="F12">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="G12">
-        <v>17.02</v>
+        <v>20.22</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1411,33 +1409,33 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>18.100000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="D13">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="E13">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="F13">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="G13">
-        <v>20.22</v>
+        <v>15.84</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1446,65 +1444,65 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14.3</v>
+        <v>24.4</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>360</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="D14">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>3.21</v>
+        <v>3.69</v>
       </c>
       <c r="F14">
-        <v>3.57</v>
+        <v>3.19</v>
       </c>
       <c r="G14">
-        <v>15.84</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>24.4</v>
+        <v>22.8</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>146.69999999999999</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E15">
-        <v>3.69</v>
+        <v>3.92</v>
       </c>
       <c r="F15">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>22.9</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1521,25 +1519,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>22.8</v>
+        <v>19.2</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>140.80000000000001</v>
+        <v>167.6</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E16">
         <v>3.92</v>
       </c>
       <c r="F16">
-        <v>3.15</v>
+        <v>3.44</v>
       </c>
       <c r="G16">
-        <v>22.9</v>
+        <v>18.3</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1551,12 +1549,12 @@
         <v>4</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1574,7 +1572,7 @@
         <v>3.44</v>
       </c>
       <c r="G17">
-        <v>18.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1591,42 +1589,42 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>167.6</v>
+        <v>275.8</v>
       </c>
       <c r="D18">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>3.92</v>
+        <v>3.07</v>
       </c>
       <c r="F18">
-        <v>3.44</v>
+        <v>4.07</v>
       </c>
       <c r="G18">
-        <v>18.899999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>16.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1641,10 +1639,10 @@
         <v>3.07</v>
       </c>
       <c r="F19">
-        <v>4.07</v>
+        <v>3.73</v>
       </c>
       <c r="G19">
-        <v>17.399999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1661,7 +1659,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>17.3</v>
+        <v>15.2</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1676,10 +1674,10 @@
         <v>3.07</v>
       </c>
       <c r="F20">
-        <v>3.73</v>
+        <v>3.78</v>
       </c>
       <c r="G20">
-        <v>17.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1696,25 +1694,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>15.2</v>
+        <v>10.4</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21">
-        <v>275.8</v>
+        <v>472</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E21">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="F21">
-        <v>3.78</v>
+        <v>5.25</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>17.98</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1726,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1737,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D22">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E22">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>5.25</v>
+        <v>5.4240000000000004</v>
       </c>
       <c r="G22">
-        <v>17.98</v>
+        <v>17.82</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1766,25 +1764,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>10.4</v>
+        <v>14.7</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D23">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="F23">
-        <v>5.4240000000000004</v>
+        <v>5.3449999999999998</v>
       </c>
       <c r="G23">
-        <v>17.82</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1801,60 +1799,60 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>14.7</v>
+        <v>32.4</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>440</v>
+        <v>78.7</v>
       </c>
       <c r="D24">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>3.23</v>
+        <v>4.08</v>
       </c>
       <c r="F24">
-        <v>5.3449999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G24">
-        <v>17.420000000000002</v>
+        <v>19.47</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>32.4</v>
+        <v>30.4</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>78.7</v>
+        <v>75.7</v>
       </c>
       <c r="D25">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>4.08</v>
+        <v>4.93</v>
       </c>
       <c r="F25">
-        <v>2.2000000000000002</v>
+        <v>1.615</v>
       </c>
       <c r="G25">
-        <v>19.47</v>
+        <v>18.52</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1866,30 +1864,30 @@
         <v>4</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30.4</v>
+        <v>33.9</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>75.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E26">
-        <v>4.93</v>
+        <v>4.22</v>
       </c>
       <c r="F26">
-        <v>1.615</v>
+        <v>1.835</v>
       </c>
       <c r="G26">
-        <v>18.52</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1901,39 +1899,39 @@
         <v>4</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>33.9</v>
+        <v>21.5</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>71.099999999999994</v>
+        <v>120.1</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E27">
-        <v>4.22</v>
+        <v>3.7</v>
       </c>
       <c r="F27">
-        <v>1.835</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="G27">
-        <v>19.899999999999999</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1941,28 +1939,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>120.1</v>
+        <v>318</v>
       </c>
       <c r="D28">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E28">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="F28">
-        <v>2.4649999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="G28">
-        <v>20.010000000000002</v>
+        <v>16.87</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1971,30 +1969,30 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D29">
         <v>150</v>
       </c>
       <c r="E29">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="F29">
-        <v>3.52</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="G29">
-        <v>16.87</v>
+        <v>17.3</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2011,25 +2009,25 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>15.2</v>
+        <v>13.3</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
       <c r="C30">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="E30">
-        <v>3.15</v>
+        <v>3.73</v>
       </c>
       <c r="F30">
-        <v>3.4350000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="G30">
-        <v>17.3</v>
+        <v>15.41</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2041,30 +2039,30 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>13.3</v>
+        <v>19.2</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D31">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="E31">
-        <v>3.73</v>
+        <v>3.08</v>
       </c>
       <c r="F31">
-        <v>3.84</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="G31">
-        <v>15.41</v>
+        <v>17.05</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2076,103 +2074,103 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>19.2</v>
+        <v>27.3</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="D32">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="E32">
-        <v>3.08</v>
+        <v>4.08</v>
       </c>
       <c r="F32">
-        <v>3.8450000000000002</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="G32">
-        <v>17.05</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>120.3</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E33">
-        <v>4.08</v>
+        <v>4.43</v>
       </c>
       <c r="F33">
-        <v>1.9350000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="G33">
-        <v>18.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>26</v>
+        <v>30.4</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>120.3</v>
+        <v>95.1</v>
       </c>
       <c r="D34">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E34">
-        <v>4.43</v>
+        <v>3.77</v>
       </c>
       <c r="F34">
-        <v>2.14</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="G34">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2186,28 +2184,28 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>30.4</v>
+        <v>15.8</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>95.1</v>
+        <v>351</v>
       </c>
       <c r="D35">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="E35">
-        <v>3.77</v>
+        <v>4.22</v>
       </c>
       <c r="F35">
-        <v>1.5129999999999999</v>
+        <v>3.17</v>
       </c>
       <c r="G35">
-        <v>16.899999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2216,30 +2214,30 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>15.8</v>
+        <v>19.7</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="D36">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="E36">
-        <v>4.22</v>
+        <v>3.62</v>
       </c>
       <c r="F36">
-        <v>3.17</v>
+        <v>2.77</v>
       </c>
       <c r="G36">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2251,30 +2249,30 @@
         <v>5</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>19.7</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="D37">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="E37">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="F37">
-        <v>2.77</v>
+        <v>3.57</v>
       </c>
       <c r="G37">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2286,76 +2284,41 @@
         <v>5</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>15</v>
+        <v>21.4</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="D38">
-        <v>335</v>
+        <v>109</v>
       </c>
       <c r="E38">
-        <v>3.54</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F38">
-        <v>3.57</v>
+        <v>2.78</v>
       </c>
       <c r="G38">
-        <v>14.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>21.4</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>121</v>
-      </c>
-      <c r="D39">
-        <v>109</v>
-      </c>
-      <c r="E39">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F39">
-        <v>2.78</v>
-      </c>
-      <c r="G39">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
-      </c>
-      <c r="K39">
         <v>2</v>
       </c>
     </row>
